--- a/0_Documentation/MasterCodebook_Final_June2022 ALL.xlsx
+++ b/0_Documentation/MasterCodebook_Final_June2022 ALL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/0_Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D04A7F-96D4-9F41-9C0B-F7900F70149F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE35F7-CA8B-A44F-9B6A-6451693F96AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19540" yWindow="500" windowWidth="18680" windowHeight="21620" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -15920,9 +15920,9 @@
   </sheetPr>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N53" sqref="N53"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -18259,9 +18259,13 @@
   </sheetData>
   <autoFilter ref="A1:L70" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <customSheetViews>
+    <customSheetView guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:L74" xr:uid="{EEE7D359-140B-6D47-83C1-4B33E4E5B86B}"/>
+    </customSheetView>
     <customSheetView guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L74" xr:uid="{7D58F009-6AE6-384D-A805-F24C6398D853}">
+      <autoFilter ref="A1:L74" xr:uid="{AC71547F-75DA-4243-AFA6-AE4D67D1CA7D}">
         <filterColumn colId="0">
           <filters>
             <filter val="?"/>
@@ -18270,10 +18274,6 @@
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L74" xr:uid="{466AC52D-446D-0841-B907-CC0AE148C980}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="C2:C70">
@@ -19169,7 +19169,7 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
     </sheetView>
